--- a/Testdata/TC_93.xlsx
+++ b/Testdata/TC_93.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>GR0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12MptElV75llkLO45sh0z2BZW7K0mRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23CEaZbrO+U7VqVPnVhX07s3MN65IxGgY7FfsmlUxSOCGHg3O9ysxP6vajyrvOqh74xL/CEd4RjiADZAK2N4No/uVC87ne6Z5fX1du27UwujcrFuWbT4Z9MfuBZnhKg0Yx4FLKqmU93apioPa3mxAOPYwx0pyv9Ib92ptQt0O0AY4wOckqrViRgPCWDfglFPChGREMCftzuA7amNOvfaoZiNzhZ4hWzH1PYUrIBVd42BZMqEz4tQte6dq7VatxsTa3tve2bN2ao/srfcTwRSI+pjxMYmuqCsJY45ncylu7VoNa3t7x9pB5loQzJUZwEFD3xuRK8qI1ya+z0pZxNQH2HQ57LqcMS1k5mT1RA9X4XGE5xcTyn1STo3RoGXMAq1LNomDDsKIuGC/B6l0SK6HkTbrZN4H7uSCRnzRwYvScx0zEg3nwkjlRB3UCQPe9EnEj+dw1sQDVwCGw6OYIPMeZibUocyFbxrExHPOsM/yQgUmOgmjSzbHLjmEODbFHNeBH2IPHI5TxqmbLbrCQEdROIcZYfFW6HsHMKsGr2GkM/cCMLFYthWGl5l265hInqo8XzjTGeYJfIWOxhfh9TDwF+N4ytyITonXaSXotTwkAlJLt2PGwxlokZGQouUoC/iBAFwmow5x6Qz7Rz4YkTkNmKVAQM2Yh2eUt0M/ngUs0WmJik5gRxNyk+4wHaMhHG4gjB4GvSDBKzOvZRUFRuF1uuYqQxohR24yNznuVcYyuAO05PhWOfJExC4PqA/1IX8WOWrRK8YXhPC1LqE4SKTCA1FxnNZCrInMjILAM8G7gQrJ1GpULVvmYmtP/oOVUzbqBp7G2QJUbdg5XMJEh/FsOIUIvpJ7cmzgLZEQ7MJv+Ti4BOoJ5ReHzUT7NRyk9nwvfpWHIFbnPl5IcmqXPA31AtePPaJSQC84k04pdFPHeC8brZD6ENUOwsFisphDJmZ0j8PHfgVq8x7jEVT/iuOGccCjhcgVyNTQt8mweBrIBbC/scxZRL4fQ9OxOIgDtx16m6/mKescB5RvrmEYRyoBbi4irSdyYcw6RGQVmeY3lnfL7IlFpeCzgMzCgLqbWxuMLLT3HrARlkTVxhJExdfGeB8quSp0ItY3FougY4TSVmqZJmOhS6Wz6vDwcvLmPSHTIWc49qFb41BUz9Nsu0xGTXa5jMmT0HHkJznPEb0wg2bY9WY1F9oF0fDV3HAmCCb0oCdjZObxoudxSTc47+PgPIauIs0ry/Q044qKOIlwwMR20iZiKfmuB6EkT6nmxlHJaxhLR1DJKwQuMpdwaEJm8zDC/gAMQw+02+kOCZqPAeYXegTVzCduYmQzE02lipolir8NJsuS2oYIeJ0ml4gSJPai2u4Mk9GQ2OUAwtJvY59OI5VVk+K9jgcHlrWDSf4VmyvZGiZnAFcvqLffJgvRj2cDTZcuaycM5cAikTrj0dZOfdtq1KGXEWMkdzwi2De6EMycGL3gijA+A7E9Y0QY9eCLYn/PeI9MCYUiKE2ky1Bp6bwcOkjyvFSlCfoWKUUAdBjnFMrIKjDlZALOKcGRv8gB1Vb7oQu4ux//+/Y3z1+9+Ozuo6dvvvjhf//xq1f//Nntsx/Bx91f/3b78S/VNhUYTfDUJ1KhSWtnx2psgZ+lJCSMa8pm2ItdLmmnp7IHTsdIX+XkoN3ttR/3WzKfpMREXJUUU9wSF2GcDcdqE3IheaRm4gkK4kyS/KTHBW6uRDni1nZFiug8/z5BZYvXLz97/fLP90prg2W9lr27u12169CNbdCKLePSVqxfqAECvFW1tqv1eg68hEEjVQBSO/U8p2HDFbvesOw0l3upI68DLbP0TBN8bi7JKVJbtUepC+THCVM6/gRCJGWrUMgNtIt+8ZM3f3laQGnrakpxFlBOtjFiMTMZyKkPRxNjPDwetbvGpDsWfpLxcjg1+deA9eppPBWcKghi7H/LgOIOxcyowB2oYoRnBsHuhbGASMzFYcHZ1lHVQg+cclnLx1EYz9WJ5AQy6hpkmk3WSqzJNZIn7bmSdDLWGrjS9fbvn68T0BvpZA1t+uKRp6ECR5FyfB21n/7r1Zcfvnrx4u75z2+//EFhBr1O+hAAfg7RlB+mbg8pT9ebJQo6GUtjXlrfzdUXTRQXqaOQBpw59iN5h9IjBKK2mE3+j3ozKHlyYmkvoC9R0HuYdW+4DmznEJlFAug5x1Btw+y2mRJUDs/s+p/f/u7u15/fffL8zYd/uv3oj7cff/L65e/fPPuDirq7p8/vfvpMZ/nlQiB1EXdY1QQa8kXENUQ0GqJ2G1998AsjCLkBLYcRy4z01Qef5iYTisrmJJsZWrpUkaIKK9C8sJAzcqqkOhTkUhHVALRFCWukCF3Ewjl1s0Xer4qpRNxJxjd6k2rMiBFCN/VN2EkRnAlvKqdFVEk9eseq23XNVdqILUwxy5n+sR9OoclIGPLJYQlSkPp6gQwr13vcH7aa/QyilBhGHomEG6oPlLSUoqT0WDJKXC1HAS40fm7si1eiFdgqK505l8ZM/dxy1vRE+nMsS7xn2MX6WECgdhxFqiEK9Ov9OJ5DM5w8yt3Plw+Vuf73UPWq+Y44G/c6RT6Mc1wohEW2IEi+TE2apdJUj4mXHdXOHgrTZEPgFR43wRz6gV51WlfQV0amyDvdKAqjtckn4ySwAXTSkFHMzOIpRp6p6rq97KwSQpLw0g9189M7DDvEJ7zc67WZSQ/CqwfLwtmXFe2xoe9pY5a7eqRmySbIP+ELR/l/X/CVszWjCBor8eRX+sk9ubiO4L5bUhu1FSkoboCwun4TP6AR409EJtBfinKaUk5Vh/pEXLjUhxyfOiLNqi+9ST27WVAzCV2u/pAS+n06oyWvhVYS38VJwJbzuWrheuU8RZSWQ3IDDWZuBkiK0+9B2VDvKGVmUw4LuTSVF2+XjJ5f8LKKvTPFxCNTq+pOSb265Vk71V1CGlXbht/Yrdcta1u8fOrJIXNQcl1yETM5sOwPnM7/AEtIqHYZHQAA</t>
+          <t>Eh8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb1QoiVhvAFvcohSoiDStZWXYrk7lKZazrI7s5L4lgItUqQpiqJwivSKPqUoUNdoEyC1e/kvgaW4T/0LPXPZG0nFXNUQ4J1zmzNnzpzzzRC9cz0LjUscMxLRhzV7y6oZmPpRQOjZw1rCp3W7WXvHRb1rH4fHXuzNMAdhA7Qo279m5GHtnPP5vmleXV1tXTW2ovjMdCzLNp8eDkb+OZ55dUIZ96iPa5lW8Hatmos6wewQcy/wuKc0H9b6o/5WBxO/C7RDj3pnON5qJ4xQzFiPcsIJZkIzxh7Hne7hd9TCXGeruWUjc4WeS7YTEgZKriSp6FoOpsVjMsOuYzlW3dqtO9bYfrC/3dxvNLcaO833UsVMEA08xkc4viS+JIy4N5tLdWvXsewH281GE5lrhcBWHgAXDcPgBF8ShoMODkNWKSKm3sCWz2HV1YJpIbOgqw3d34VHsTc/HxMe4qrqB1GMfQjUveY+wlfDWMdvPB8Ad3xOYr7oeovKth4zHA/nIhrVVF3UjShvhTjmj+ewqTiAPQeGy+MEI/MOZq7UJcyHb0ITHLhTL2RFpRITPYniCzb3fHwEB9YUNq5oGHkBZBYnjBM/n3SFgY7jaA4WYfJ2FAYHYFULr2FklvsUQiymbUfRRe7dOiaSOSCzAfZ05vFUfIWORufR1ZCGi1EyYX5MJjjotlPptTwkTp7W7iSMRzPwIichRStQFvAPTtoyGXWxT2ZeeBxCEJnbACslAmolPJoS3onCZEZZ6tMSFT2BFY3xdbbCbIyGsLlUBD2ifZrKqzCvZZUVTqKrbM5VhgxCgdxifrrdq4xl4S7Q0u1b5cgdEas8ICE0guJeFKjlrBidY8zXpoTiIFHzDkRrcdsLMScycwqCzITsBipUTaspi+722LL25R/MnLFRjwZazrbrVqPesAtyKRMdJbPhBE7wpVyTawNviYRgFWE79OgFUJ8Qfn7USr1fw0FqzXfKr/IQnNV56C0kOYtLkYb61A+TAKsS0KdTmZTCN7WNd7LRCmkAp9pFHl2MF3MouYzsc/h4WIMmvM94DG2+5vpRQnm8ELUCmVr0bTosmVA5gRdurDON8fcTQBeLg4T6nSjYfLZARecxJXxzD6MkVgVwcxUZPVELE9bFoqrIMr+xvl9lTSyuJD6jeBZR4m8ebQiy8D64x0JYeqo21sDqfG0sH0InV41OnPWN1WKAhtDaKk3TYizyiUxWfTyCgr55x5Hp4qmXhADLODTVs6zaLpNRi10syxRJ6HEcpjXPFaCXAer1g9mWD3BBILstP5oJgglg88kImUV5gXl83KNnA4+eJYAqsrqyTM8qruiI49ijTCwnAxFLxXe9EErrlAI3ripew0QmgipeEXCRuSSHxng2j2IvPITAkAOddhohAfg49Pi5HkE3C7GfBtnMVTOtsmep428Tk21JLUMceF0ml4hSSKxF4etcJqchscpDOJZhxwvJJFZVNW3e63iwYTkcTOuvWFxFaJjuAdyxoN9+Gy8E8M4Hmi5T1k4ZKoFFIXVHJ9u7zo7VcADLiDGSKz7BXmj04DBzbPTpJWZ8Bmr7xglmJIAv4oX7xrt4ggk0QRki3YYqaxf10EFa56UrLfC3TCkLAMI4I9BGVgUzTq7gnmIvDhcFQbXUQeSD3O2P/33zmxevX356++GzN5//8L//+NXrf/7s5vmP4OP2r3+7+eiXaplKGI29SYilQ+P27q7V2IY8y0hIBNeUYDhIfC5pp6cSA2djpO9sctDp9TuPBm1ZTzJiqq5aiimug4soyYcjtQg5kdxSM80EJeKO0/qkxyVuoUW54np2icvSRf5diioWX7369KtXf75TWwcsx1r23t5O3Xbqlr0BFFuWy6DYoNQDhPB23dqpO05BeEkGnagGkMWpH7gN29qznIZlZ7U8yBJ5ndAyS1sae2fmkp4idRQ8ylKgOE6ZMvHHcEQytjoKhYFO0c9/8uYvz0pSOrqaUrYCzkkYIyYz04E0fXQyNkbDxyednjHujUSe5LyCnDL+NcJ69uw8lZKK0sQLv2VAc4dmZtTgDlQzoqmBPf/cWMBJLJzDUrKto6qJ7mly2ctHcZTM1Y4UFHLqGsmsmqzVWFNrJE/Gc6Xo5Kw14srXm79/tk5BL6SbA1r35LBtzGiWl5KGShxFKvD1qf3kX6+/+OD1y5e3L35+88UPShb0PNlDAOQ5nKbiMEt7KHm63yxR0JORDOaF9d1Cf9FEcZE6jgjlzLWb8g6lRwhUbWFN/o/6M2h50rCMF9CXKOhdj/WuuT7Y7hEyywTwc+5Bt43y22ZGUDU8j+t/fvu7219/dvvxizcf/Onmwz/efPTxV69+/+b5H9Spu3324vanz3WVX24E0hdxh1Ug0JAvIr4hTqMherfx5fu/MGjEDYAcRiIr0pfvf1IwJhyV4CS3DJAuc6TswopoUVnoGQVXMh9KepmKAgAd0cIamYRuYtGc+Pkk79WFKXHuJOMb/XE9YdiIAE19E1ZSFs6VN9XTKqqlHj+wHNvRXOWNWMLEY4XQPwqjCYCMlCGfHJZESlpfr5DLyvkeDYbt1iAXUU4M4wDHIg3VB+qzFFSm6VWgABfAnp+E4mVoRWyVhdKvQuky9RPLtBWIkudalmXX5V+hzZUkUCeJYwWCqH6aHyVzAMDpQ9zdfPk4WcC8RwqfFlFwPu53y3wYF7jQ/MpsQZB8WY40S5WmPhOvOQrCHonQ5EPglR40IRz69V2hq0vAkrEpak0vjqN4bcHJOanYIaBnqCJmHvFMxhRTKqQd5HuVEtIil32o255eYdTFIeaVn6ZT7cPo8t66sPdVVftsGAY6mNWuG1lYcgPF93mRKFWdacUxwCbxoFf5QX1A6EW/2urdYG9n6u9NmlbD23acvV08afi25TiBvbu9PYG1KaPi9ilMiJuLuLtVmwTAYlk9v2efwM27ojUVYKko7qIQKXkgdWHPxuiAxIw/FSVKfynKaUY5VdD5qfBPfcjxqdvQgBkEzOJkZsnrtL5w9VNOFA7IjFS8r1ppESobgTSYzxW2rLqh0POO8DUg34IFqNaT70E/Uw88VaypUwVFPtNPbY2SSWVzZqp8DHyRWPfT7gWAy+6vLX8YIeH/4YBEXvc10aeMnJ3zqvvq7O01cBM7dWfq+/VtGNShG0/qgTfdsy1r2gh2HPGirY1DdyD4quIkoqcQBveK6nrm0i/b7v8A60cyjxIfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B17" s="2">
-        <v>68708.75249999999</v>
+        <v>96338.16199999998</v>
       </c>
     </row>
     <row r="18">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B18" s="2">
-        <v>3244857856.999478</v>
+        <v>3113423266.18507</v>
       </c>
     </row>
     <row r="19">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B19" s="2">
-        <v>56963.65382416649</v>
+        <v>55798.05790692961</v>
       </c>
     </row>
     <row r="20">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>1.182177702322342</v>
+        <v>0.7523463579862635</v>
       </c>
     </row>
     <row r="21">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.6111834863010071</v>
+        <v>-0.2501960185419971</v>
       </c>
     </row>
     <row r="22">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.8290596430806468</v>
+        <v>0.5791895625632718</v>
       </c>
     </row>
     <row r="23">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B23" s="2">
-        <v>16421.36</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="24">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B25" s="2">
-        <v>47666.46</v>
+        <v>85858.17</v>
       </c>
     </row>
     <row r="26">
@@ -671,70 +671,46 @@
         </is>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7">
-        <v>37956</v>
+        <v>39052</v>
       </c>
       <c r="B27" s="8">
-        <v>16421.36</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7">
-        <v>38322</v>
+        <v>39417</v>
       </c>
       <c r="B28" s="8">
-        <v>22352.63</v>
+        <v>57369.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7">
-        <v>38687</v>
+        <v>39783</v>
       </c>
       <c r="B29" s="8">
-        <v>29205.22</v>
+        <v>85858.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7">
-        <v>39052</v>
+        <v>40148</v>
       </c>
       <c r="B30" s="8">
-        <v>37962.97</v>
+        <v>121923.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7">
-        <v>39417</v>
+        <v>40513</v>
       </c>
       <c r="B31" s="8">
-        <v>57369.95</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
-        <v>39783</v>
-      </c>
-      <c r="B32" s="8">
-        <v>85858.17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
-        <v>40148</v>
-      </c>
-      <c r="B33" s="8">
-        <v>121923.76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
-        <v>40513</v>
-      </c>
-      <c r="B34" s="8">
         <v>178575.96</v>
       </c>
     </row>
@@ -742,4 +718,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>31</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE0475E-B029-4596-94E1-AD57BFF00EA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_93.xlsx
+++ b/Testdata/TC_93.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eh8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb1QoiVhvAFvcohSoiDStZWXYrk7lKZazrI7s5L4lgItUqQpiqJwivSKPqUoUNdoEyC1e/kvgaW4T/0LPXPZG0nFXNUQ4J1zmzNnzpzzzRC9cz0LjUscMxLRhzV7y6oZmPpRQOjZw1rCp3W7WXvHRb1rH4fHXuzNMAdhA7Qo279m5GHtnPP5vmleXV1tXTW2ovjMdCzLNp8eDkb+OZ55dUIZ96iPa5lW8Hatmos6wewQcy/wuKc0H9b6o/5WBxO/C7RDj3pnON5qJ4xQzFiPcsIJZkIzxh7Hne7hd9TCXGeruWUjc4WeS7YTEgZKriSp6FoOpsVjMsOuYzlW3dqtO9bYfrC/3dxvNLcaO833UsVMEA08xkc4viS+JIy4N5tLdWvXsewH281GE5lrhcBWHgAXDcPgBF8ShoMODkNWKSKm3sCWz2HV1YJpIbOgqw3d34VHsTc/HxMe4qrqB1GMfQjUveY+wlfDWMdvPB8Ad3xOYr7oeovKth4zHA/nIhrVVF3UjShvhTjmj+ewqTiAPQeGy+MEI/MOZq7UJcyHb0ITHLhTL2RFpRITPYniCzb3fHwEB9YUNq5oGHkBZBYnjBM/n3SFgY7jaA4WYfJ2FAYHYFULr2FklvsUQiymbUfRRe7dOiaSOSCzAfZ05vFUfIWORufR1ZCGi1EyYX5MJjjotlPptTwkTp7W7iSMRzPwIichRStQFvAPTtoyGXWxT2ZeeBxCEJnbACslAmolPJoS3onCZEZZ6tMSFT2BFY3xdbbCbIyGsLlUBD2ifZrKqzCvZZUVTqKrbM5VhgxCgdxifrrdq4xl4S7Q0u1b5cgdEas8ICE0guJeFKjlrBidY8zXpoTiIFHzDkRrcdsLMScycwqCzITsBipUTaspi+722LL25R/MnLFRjwZazrbrVqPesAtyKRMdJbPhBE7wpVyTawNviYRgFWE79OgFUJ8Qfn7USr1fw0FqzXfKr/IQnNV56C0kOYtLkYb61A+TAKsS0KdTmZTCN7WNd7LRCmkAp9pFHl2MF3MouYzsc/h4WIMmvM94DG2+5vpRQnm8ELUCmVr0bTosmVA5gRdurDON8fcTQBeLg4T6nSjYfLZARecxJXxzD6MkVgVwcxUZPVELE9bFoqrIMr+xvl9lTSyuJD6jeBZR4m8ebQiy8D64x0JYeqo21sDqfG0sH0InV41OnPWN1WKAhtDaKk3TYizyiUxWfTyCgr55x5Hp4qmXhADLODTVs6zaLpNRi10syxRJ6HEcpjXPFaCXAer1g9mWD3BBILstP5oJgglg88kImUV5gXl83KNnA4+eJYAqsrqyTM8qruiI49ijTCwnAxFLxXe9EErrlAI3ripew0QmgipeEXCRuSSHxng2j2IvPITAkAOddhohAfg49Pi5HkE3C7GfBtnMVTOtsmep428Tk21JLUMceF0ml4hSSKxF4etcJqchscpDOJZhxwvJJFZVNW3e63iwYTkcTOuvWFxFaJjuAdyxoN9+Gy8E8M4Hmi5T1k4ZKoFFIXVHJ9u7zo7VcADLiDGSKz7BXmj04DBzbPTpJWZ8Bmr7xglmJIAv4oX7xrt4ggk0QRki3YYqaxf10EFa56UrLfC3TCkLAMI4I9BGVgUzTq7gnmIvDhcFQbXUQeSD3O2P/33zmxevX356++GzN5//8L//+NXrf/7s5vmP4OP2r3+7+eiXaplKGI29SYilQ+P27q7V2IY8y0hIBNeUYDhIfC5pp6cSA2djpO9sctDp9TuPBm1ZTzJiqq5aiimug4soyYcjtQg5kdxSM80EJeKO0/qkxyVuoUW54np2icvSRf5diioWX7369KtXf75TWwcsx1r23t5O3Xbqlr0BFFuWy6DYoNQDhPB23dqpO05BeEkGnagGkMWpH7gN29qznIZlZ7U8yBJ5ndAyS1sae2fmkp4idRQ8ylKgOE6ZMvHHcEQytjoKhYFO0c9/8uYvz0pSOrqaUrYCzkkYIyYz04E0fXQyNkbDxyednjHujUSe5LyCnDL+NcJ69uw8lZKK0sQLv2VAc4dmZtTgDlQzoqmBPf/cWMBJLJzDUrKto6qJ7mly2ctHcZTM1Y4UFHLqGsmsmqzVWFNrJE/Gc6Xo5Kw14srXm79/tk5BL6SbA1r35LBtzGiWl5KGShxFKvD1qf3kX6+/+OD1y5e3L35+88UPShb0PNlDAOQ5nKbiMEt7KHm63yxR0JORDOaF9d1Cf9FEcZE6jgjlzLWb8g6lRwhUbWFN/o/6M2h50rCMF9CXKOhdj/WuuT7Y7hEyywTwc+5Bt43y22ZGUDU8j+t/fvu7219/dvvxizcf/Onmwz/efPTxV69+/+b5H9Spu3324vanz3WVX24E0hdxh1Ug0JAvIr4hTqMherfx5fu/MGjEDYAcRiIr0pfvf1IwJhyV4CS3DJAuc6TswopoUVnoGQVXMh9KepmKAgAd0cIamYRuYtGc+Pkk79WFKXHuJOMb/XE9YdiIAE19E1ZSFs6VN9XTKqqlHj+wHNvRXOWNWMLEY4XQPwqjCYCMlCGfHJZESlpfr5DLyvkeDYbt1iAXUU4M4wDHIg3VB+qzFFSm6VWgABfAnp+E4mVoRWyVhdKvQuky9RPLtBWIkudalmXX5V+hzZUkUCeJYwWCqH6aHyVzAMDpQ9zdfPk4WcC8RwqfFlFwPu53y3wYF7jQ/MpsQZB8WY40S5WmPhOvOQrCHonQ5EPglR40IRz69V2hq0vAkrEpak0vjqN4bcHJOanYIaBnqCJmHvFMxhRTKqQd5HuVEtIil32o255eYdTFIeaVn6ZT7cPo8t66sPdVVftsGAY6mNWuG1lYcgPF93mRKFWdacUxwCbxoFf5QX1A6EW/2urdYG9n6u9NmlbD23acvV08afi25TiBvbu9PYG1KaPi9ilMiJuLuLtVmwTAYlk9v2efwM27ojUVYKko7qIQKXkgdWHPxuiAxIw/FSVKfynKaUY5VdD5qfBPfcjxqdvQgBkEzOJkZsnrtL5w9VNOFA7IjFS8r1ppESobgTSYzxW2rLqh0POO8DUg34IFqNaT70E/Uw88VaypUwVFPtNPbY2SSWVzZqp8DHyRWPfT7gWAy+6vLX8YIeH/4YBEXvc10aeMnJ3zqvvq7O01cBM7dWfq+/VtGNShG0/qgTfdsy1r2gh2HPGirY1DdyD4quIkoqcQBveK6nrm0i/b7v8A60cyjxIfAAA=</t>
+          <t>GR0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12MptElV75llkLO45sh0z2BZW7K0mRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23CEaZbrO+U7VqVPnVhX07s3MN65IxGgY7FfsmlUxSOCGHg3O9ysxP6vajyrvOqh74xL/CEd4RjiADZAK2N4No/uVC87ne6Z5fX1du27UwujcrFuWbT4Z9MfuBZnhKg0Yx4FLKqmU93apioPa3mxAOPYwx0pyv9Ib92ptQt0O0AY4wOckqrViRgPCWDfglFPChGREMCftzuA7amNOvfaoZiNzhZ4hWzH1PYUrIBVd42BZMqEz4tQte6dq7VatxsTa3tve2bN2ao/srfcTwRSI+pjxMYmuqCsJY45ncylu7VoNa3t7x9pB5loQzJUZwEFD3xuRK8qI1ya+z0pZxNQH2HQ57LqcMS1k5mT1RA9X4XGE5xcTyn1STo3RoGXMAq1LNomDDsKIuGC/B6l0SK6HkTbrZN4H7uSCRnzRwYvScx0zEg3nwkjlRB3UCQPe9EnEj+dw1sQDVwCGw6OYIPMeZibUocyFbxrExHPOsM/yQgUmOgmjSzbHLjmEODbFHNeBH2IPHI5TxqmbLbrCQEdROIcZYfFW6HsHMKsGr2GkM/cCMLFYthWGl5l265hInqo8XzjTGeYJfIWOxhfh9TDwF+N4ytyITonXaSXotTwkAlJLt2PGwxlokZGQouUoC/iBAFwmow5x6Qz7Rz4YkTkNmKVAQM2Yh2eUt0M/ngUs0WmJik5gRxNyk+4wHaMhHG4gjB4GvSDBKzOvZRUFRuF1uuYqQxohR24yNznuVcYyuAO05PhWOfJExC4PqA/1IX8WOWrRK8YXhPC1LqE4SKTCA1FxnNZCrInMjILAM8G7gQrJ1GpULVvmYmtP/oOVUzbqBp7G2QJUbdg5XMJEh/FsOIUIvpJ7cmzgLZEQ7MJv+Ti4BOoJ5ReHzUT7NRyk9nwvfpWHIFbnPl5IcmqXPA31AtePPaJSQC84k04pdFPHeC8brZD6ENUOwsFisphDJmZ0j8PHfgVq8x7jEVT/iuOGccCjhcgVyNTQt8mweBrIBbC/scxZRL4fQ9OxOIgDtx16m6/mKescB5RvrmEYRyoBbi4irSdyYcw6RGQVmeY3lnfL7IlFpeCzgMzCgLqbWxuMLLT3HrARlkTVxhJExdfGeB8quSp0ItY3FougY4TSVmqZJmOhS6Wz6vDwcvLmPSHTIWc49qFb41BUz9Nsu0xGTXa5jMmT0HHkJznPEb0wg2bY9WY1F9oF0fDV3HAmCCb0oCdjZObxoudxSTc47+PgPIauIs0ry/Q044qKOIlwwMR20iZiKfmuB6EkT6nmxlHJaxhLR1DJKwQuMpdwaEJm8zDC/gAMQw+02+kOCZqPAeYXegTVzCduYmQzE02lipolir8NJsuS2oYIeJ0ml4gSJPai2u4Mk9GQ2OUAwtJvY59OI5VVk+K9jgcHlrWDSf4VmyvZGiZnAFcvqLffJgvRj2cDTZcuaycM5cAikTrj0dZOfdtq1KGXEWMkdzwi2De6EMycGL3gijA+A7E9Y0QY9eCLYn/PeI9MCYUiKE2ky1Bp6bwcOkjyvFSlCfoWKUUAdBjnFMrIKjDlZALOKcGRv8gB1Vb7oQu4ux//+/Y3z1+9+Ozuo6dvvvjhf//xq1f//Nntsx/Bx91f/3b78S/VNhUYTfDUJ1KhSWtnx2psgZ+lJCSMa8pm2ItdLmmnp7IHTsdIX+XkoN3ttR/3WzKfpMREXJUUU9wSF2GcDcdqE3IheaRm4gkK4kyS/KTHBW6uRDni1nZFiug8/z5BZYvXLz97/fLP90prg2W9lr27u12169CNbdCKLePSVqxfqAECvFW1tqv1eg68hEEjVQBSO/U8p2HDFbvesOw0l3upI68DLbP0TBN8bi7JKVJbtUepC+THCVM6/gRCJGWrUMgNtIt+8ZM3f3laQGnrakpxFlBOtjFiMTMZyKkPRxNjPDwetbvGpDsWfpLxcjg1+deA9eppPBWcKghi7H/LgOIOxcyowB2oYoRnBsHuhbGASMzFYcHZ1lHVQg+cclnLx1EYz9WJ5AQy6hpkmk3WSqzJNZIn7bmSdDLWGrjS9fbvn68T0BvpZA1t+uKRp6ECR5FyfB21n/7r1Zcfvnrx4u75z2+//EFhBr1O+hAAfg7RlB+mbg8pT9ebJQo6GUtjXlrfzdUXTRQXqaOQBpw59iN5h9IjBKK2mE3+j3ozKHlyYmkvoC9R0HuYdW+4DmznEJlFAug5x1Btw+y2mRJUDs/s+p/f/u7u15/fffL8zYd/uv3oj7cff/L65e/fPPuDirq7p8/vfvpMZ/nlQiB1EXdY1QQa8kXENUQ0GqJ2G1998AsjCLkBLYcRy4z01Qef5iYTisrmJJsZWrpUkaIKK9C8sJAzcqqkOhTkUhHVALRFCWukCF3Ewjl1s0Xer4qpRNxJxjd6k2rMiBFCN/VN2EkRnAlvKqdFVEk9eseq23XNVdqILUwxy5n+sR9OoclIGPLJYQlSkPp6gQwr13vcH7aa/QyilBhGHomEG6oPlLSUoqT0WDJKXC1HAS40fm7si1eiFdgqK505l8ZM/dxy1vRE+nMsS7xn2MX6WECgdhxFqiEK9Ov9OJ5DM5w8yt3Plw+Vuf73UPWq+Y44G/c6RT6Mc1wohEW2IEi+TE2apdJUj4mXHdXOHgrTZEPgFR43wRz6gV51WlfQV0amyDvdKAqjtckn4ySwAXTSkFHMzOIpRp6p6rq97KwSQpLw0g9189M7DDvEJ7zc67WZSQ/CqwfLwtmXFe2xoe9pY5a7eqRmySbIP+ELR/l/X/CVszWjCBor8eRX+sk9ubiO4L5bUhu1FSkoboCwun4TP6AR409EJtBfinKaUk5Vh/pEXLjUhxyfOiLNqi+9ST27WVAzCV2u/pAS+n06oyWvhVYS38VJwJbzuWrheuU8RZSWQ3IDDWZuBkiK0+9B2VDvKGVmUw4LuTSVF2+XjJ5f8LKKvTPFxCNTq+pOSb265Vk71V1CGlXbht/Yrdcta1u8fOrJIXNQcl1yETM5sOwPnM7/AEtIqHYZHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B17" s="2">
-        <v>96338.16199999998</v>
+        <v>68708.75249999999</v>
       </c>
     </row>
     <row r="18">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B18" s="2">
-        <v>3113423266.18507</v>
+        <v>3244857856.999478</v>
       </c>
     </row>
     <row r="19">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B19" s="2">
-        <v>55798.05790692961</v>
+        <v>56963.65382416649</v>
       </c>
     </row>
     <row r="20">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.7523463579862635</v>
+        <v>1.182177702322342</v>
       </c>
     </row>
     <row r="21">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.2501960185419971</v>
+        <v>0.6111834863010071</v>
       </c>
     </row>
     <row r="22">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.5791895625632718</v>
+        <v>0.8290596430806468</v>
       </c>
     </row>
     <row r="23">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B23" s="2">
-        <v>37962.97</v>
+        <v>16421.36</v>
       </c>
     </row>
     <row r="24">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B25" s="2">
-        <v>85858.17</v>
+        <v>47666.46</v>
       </c>
     </row>
     <row r="26">
@@ -671,46 +671,70 @@
         </is>
       </c>
       <c r="B26" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7">
-        <v>39052</v>
+        <v>37956</v>
       </c>
       <c r="B27" s="8">
-        <v>37962.97</v>
+        <v>16421.36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7">
-        <v>39417</v>
+        <v>38322</v>
       </c>
       <c r="B28" s="8">
-        <v>57369.95</v>
+        <v>22352.63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7">
-        <v>39783</v>
+        <v>38687</v>
       </c>
       <c r="B29" s="8">
-        <v>85858.17</v>
+        <v>29205.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7">
-        <v>40148</v>
+        <v>39052</v>
       </c>
       <c r="B30" s="8">
-        <v>121923.76</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7">
+        <v>39417</v>
+      </c>
+      <c r="B31" s="8">
+        <v>57369.95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7">
+        <v>39783</v>
+      </c>
+      <c r="B32" s="8">
+        <v>85858.17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7">
+        <v>40148</v>
+      </c>
+      <c r="B33" s="8">
+        <v>121923.76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7">
         <v>40513</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B34" s="8">
         <v>178575.96</v>
       </c>
     </row>
@@ -718,37 +742,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>31</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE0475E-B029-4596-94E1-AD57BFF00EA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>